--- a/Meteorological Data/Daily Solar irradiance.xlsx
+++ b/Meteorological Data/Daily Solar irradiance.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/lcchanaj_connect_ust_hk/Documents/桌面/FYP Code/Meteorological Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_49A9187C9D479C8F6E38F4F7495DCE3A8747D4BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4320E518-5260-47AC-9449-42C09482AFE2}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_49A9187C9D479C8F6E38F4F7495DCE3A8747D4BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA770AF5-0A42-4236-9D5F-A13AD2A020F3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,7 +46,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -98,7 +111,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -403,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -415,7 +428,7 @@
     <col min="2" max="2" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44805</v>
       </c>
@@ -431,7 +444,7 @@
         <v>5099.6472000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44806</v>
       </c>
@@ -439,7 +452,7 @@
         <v>4615.3744999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44807</v>
       </c>
@@ -447,7 +460,7 @@
         <v>5790.9468999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44808</v>
       </c>
@@ -455,7 +468,7 @@
         <v>5886.0480500000003</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44809</v>
       </c>
@@ -463,7 +476,7 @@
         <v>5155.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44810</v>
       </c>
@@ -471,7 +484,7 @@
         <v>5354.1458000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44811</v>
       </c>
@@ -479,7 +492,7 @@
         <v>1378.2918999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44812</v>
       </c>
@@ -487,7 +500,7 @@
         <v>5740.3892000000014</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44813</v>
       </c>
@@ -495,15 +508,19 @@
         <v>5759.6536800000003</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44814</v>
       </c>
       <c r="B11">
         <v>4565.643</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f>AVERAGE(B2:B31)</f>
+        <v>4476.9757090000012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44815</v>
       </c>
@@ -511,7 +528,7 @@
         <v>4311.7060000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44816</v>
       </c>
@@ -519,7 +536,7 @@
         <v>5265.9570000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44817</v>
       </c>
@@ -527,7 +544,7 @@
         <v>5490.71371</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44818</v>
       </c>
@@ -535,7 +552,7 @@
         <v>5492.9010699999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44819</v>
       </c>
@@ -3344,12 +3361,7 @@
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="2">
-        <v>45170</v>
-      </c>
-      <c r="B367">
-        <v>38.025300000000001</v>
-      </c>
+      <c r="A367" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Meteorological Data/Daily Solar irradiance.xlsx
+++ b/Meteorological Data/Daily Solar irradiance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/lcchanaj_connect_ust_hk/Documents/桌面/FYP Code/Meteorological Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_49A9187C9D479C8F6E38F4F7495DCE3A8747D4BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA770AF5-0A42-4236-9D5F-A13AD2A020F3}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_49A9187C9D479C8F6E38F4F7495DCE3A8747D4BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43E03EE7-A608-4E0E-A292-352FDD910D30}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="E365" sqref="E365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -428,7 +428,7 @@
     <col min="2" max="2" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44805</v>
       </c>
@@ -444,7 +444,7 @@
         <v>5099.6472000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44806</v>
       </c>
@@ -452,7 +452,7 @@
         <v>4615.3744999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44807</v>
       </c>
@@ -460,7 +460,7 @@
         <v>5790.9468999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44808</v>
       </c>
@@ -468,7 +468,7 @@
         <v>5886.0480500000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44809</v>
       </c>
@@ -476,7 +476,7 @@
         <v>5155.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44810</v>
       </c>
@@ -484,7 +484,7 @@
         <v>5354.1458000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44811</v>
       </c>
@@ -492,7 +492,7 @@
         <v>1378.2918999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44812</v>
       </c>
@@ -500,7 +500,7 @@
         <v>5740.3892000000014</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44813</v>
       </c>
@@ -508,19 +508,15 @@
         <v>5759.6536800000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44814</v>
       </c>
       <c r="B11">
         <v>4565.643</v>
       </c>
-      <c r="D11">
-        <f>AVERAGE(B2:B31)</f>
-        <v>4476.9757090000012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44815</v>
       </c>
@@ -528,7 +524,7 @@
         <v>4311.7060000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44816</v>
       </c>
@@ -536,7 +532,7 @@
         <v>5265.9570000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44817</v>
       </c>
@@ -544,7 +540,7 @@
         <v>5490.71371</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44818</v>
       </c>
@@ -552,7 +548,7 @@
         <v>5492.9010699999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44819</v>
       </c>
@@ -3359,9 +3355,6 @@
       <c r="B366">
         <v>5581.1939000000002</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
